--- a/data/trans_orig/P1427-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1427-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>49353</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>37719</v>
+        <v>36296</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>67584</v>
+        <v>64349</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05063678596544284</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03870070366178158</v>
+        <v>0.0372398913491862</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06934240818946365</v>
+        <v>0.06602291014365931</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>76</v>
@@ -764,19 +764,19 @@
         <v>82403</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>64957</v>
+        <v>65746</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>101356</v>
+        <v>101640</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06159589038963579</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04855525476145844</v>
+        <v>0.04914473737736628</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07576322843179081</v>
+        <v>0.07597581614474394</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>120</v>
@@ -785,19 +785,19 @@
         <v>131756</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>110626</v>
+        <v>110708</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>156658</v>
+        <v>156753</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0569768660797331</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04783939011152561</v>
+        <v>0.04787505818218446</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06774596364856464</v>
+        <v>0.06778690120839606</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>925290</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>907059</v>
+        <v>910294</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>936924</v>
+        <v>938347</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9493632140345571</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9306575918105363</v>
+        <v>0.9339770898563404</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9612992963382184</v>
+        <v>0.9627601086508139</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1171</v>
@@ -835,19 +835,19 @@
         <v>1255394</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1236441</v>
+        <v>1236157</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1272840</v>
+        <v>1272051</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9384041096103642</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9242367715682093</v>
+        <v>0.9240241838552562</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9514447452385417</v>
+        <v>0.9508552626226339</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2035</v>
@@ -856,19 +856,19 @@
         <v>2180684</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2155782</v>
+        <v>2155687</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2201814</v>
+        <v>2201732</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9430231339202669</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9322540363514353</v>
+        <v>0.9322130987916041</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9521606098884744</v>
+        <v>0.9521249418178157</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>15817</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9219</v>
+        <v>9338</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26102</v>
+        <v>27146</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.008053524592279539</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004694323382165642</v>
+        <v>0.004754877427576147</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01329039241924751</v>
+        <v>0.01382209564585015</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -981,19 +981,19 @@
         <v>9641</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4141</v>
+        <v>4341</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18783</v>
+        <v>19679</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.005494603321591831</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002360209623199009</v>
+        <v>0.002474349414774394</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01070513460601492</v>
+        <v>0.01121572257171682</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>21</v>
@@ -1002,19 +1002,19 @@
         <v>25458</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15455</v>
+        <v>15784</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>38860</v>
+        <v>37878</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.006846101396973625</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004156323965795904</v>
+        <v>0.004244581336414515</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01045034305372786</v>
+        <v>0.0101861264815487</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>1948140</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1937855</v>
+        <v>1936811</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1954738</v>
+        <v>1954619</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9919464754077204</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9867096075807525</v>
+        <v>0.9861779043541498</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9953056766178343</v>
+        <v>0.9952451225724238</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1626</v>
@@ -1052,19 +1052,19 @@
         <v>1744951</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1735809</v>
+        <v>1734913</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1750451</v>
+        <v>1750251</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9945053966784082</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.989294865393985</v>
+        <v>0.9887842774282831</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9976397903768008</v>
+        <v>0.9975256505852255</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3468</v>
@@ -1073,19 +1073,19 @@
         <v>3693091</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3679689</v>
+        <v>3680671</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3703094</v>
+        <v>3702765</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9931538986030264</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9895496569462725</v>
+        <v>0.9898138735184513</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9958436760342042</v>
+        <v>0.9957554186635857</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>2812</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>913</v>
+        <v>921</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7550</v>
+        <v>8518</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005844228748864829</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001897045179067323</v>
+        <v>0.001913385121215815</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01569091263214738</v>
+        <v>0.017701369703143</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6153</v>
+        <v>7110</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.004379041310036849</v>
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01341575339554595</v>
+        <v>0.01550184537236069</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -1219,19 +1219,19 @@
         <v>4821</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1880</v>
+        <v>1858</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>10199</v>
+        <v>10788</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.005129213263791603</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002000541264745581</v>
+        <v>0.001977064396614823</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01085216459483654</v>
+        <v>0.01147919358524696</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>478369</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>473631</v>
+        <v>472663</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>480268</v>
+        <v>480260</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9941557712511352</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9843090873678524</v>
+        <v>0.982298630296857</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9981029548209327</v>
+        <v>0.9980866148787843</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>410</v>
@@ -1269,7 +1269,7 @@
         <v>456623</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>452478</v>
+        <v>451521</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>458631</v>
@@ -1278,7 +1278,7 @@
         <v>0.9956209586899631</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9865842466044542</v>
+        <v>0.9844981546276396</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1290,19 +1290,19 @@
         <v>934992</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>929614</v>
+        <v>929025</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>937933</v>
+        <v>937955</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9948707867362084</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9891478354051639</v>
+        <v>0.988520806414753</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9979994587352544</v>
+        <v>0.9980229356033852</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>67982</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>51406</v>
+        <v>51734</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>87092</v>
+        <v>85729</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0198789589827539</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0150319027545944</v>
+        <v>0.0151279123820298</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02546718392832973</v>
+        <v>0.02506864466158557</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>85</v>
@@ -1415,19 +1415,19 @@
         <v>94052</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>76041</v>
+        <v>74838</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>116285</v>
+        <v>114281</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02648589150455978</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02141378143574511</v>
+        <v>0.02107508510527248</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03274703008350848</v>
+        <v>0.03218256596820071</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>146</v>
@@ -1436,19 +1436,19 @@
         <v>162034</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>133173</v>
+        <v>139627</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>187085</v>
+        <v>195152</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02324461889769709</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01910434329979556</v>
+        <v>0.02003032384061188</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02683833791241796</v>
+        <v>0.02799567695917319</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>3351800</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3332690</v>
+        <v>3334053</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3368376</v>
+        <v>3368048</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9801210410172461</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9745328160716704</v>
+        <v>0.9749313553384145</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9849680972454058</v>
+        <v>0.9848720876179702</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3207</v>
@@ -1486,19 +1486,19 @@
         <v>3456968</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3434735</v>
+        <v>3436739</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3474979</v>
+        <v>3476182</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9735141084954402</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9672529699164915</v>
+        <v>0.9678174340317995</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9785862185642549</v>
+        <v>0.9789249148947275</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6348</v>
@@ -1507,19 +1507,19 @@
         <v>6808767</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6783716</v>
+        <v>6775649</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6837628</v>
+        <v>6831174</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9767553811023029</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9731616620875821</v>
+        <v>0.9720043230408268</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9808956567002046</v>
+        <v>0.9799696761593882</v>
       </c>
     </row>
     <row r="15">
@@ -1850,19 +1850,19 @@
         <v>19731</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13344</v>
+        <v>11898</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29934</v>
+        <v>29389</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02615598072139833</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01768986997347847</v>
+        <v>0.01577199997948634</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03968220836933897</v>
+        <v>0.03896002686282458</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>48</v>
@@ -1871,19 +1871,19 @@
         <v>55702</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>42193</v>
+        <v>40539</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>74755</v>
+        <v>71309</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05600091740367256</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04241903857557226</v>
+        <v>0.04075698430142081</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07515612805736373</v>
+        <v>0.07169183814467107</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>70</v>
@@ -1892,19 +1892,19 @@
         <v>75433</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>59690</v>
+        <v>58180</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>93553</v>
+        <v>94186</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04312879484708208</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03412786686837764</v>
+        <v>0.03326434799420779</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05348897254995296</v>
+        <v>0.05385118453619372</v>
       </c>
     </row>
     <row r="5">
@@ -1921,19 +1921,19 @@
         <v>734616</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>724413</v>
+        <v>724958</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>741003</v>
+        <v>742449</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9738440192786016</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.960317791630661</v>
+        <v>0.9610399731371755</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9823101300265216</v>
+        <v>0.9842280000205137</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>844</v>
@@ -1942,19 +1942,19 @@
         <v>938958</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>919905</v>
+        <v>923351</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>952467</v>
+        <v>954121</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9439990825963275</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9248438719426363</v>
+        <v>0.9283081618553289</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9575809614244277</v>
+        <v>0.9592430156985792</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1584</v>
@@ -1963,19 +1963,19 @@
         <v>1673574</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1655454</v>
+        <v>1654821</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1689317</v>
+        <v>1690827</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9568712051529179</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9465110274500471</v>
+        <v>0.9461488154638062</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9658721331316223</v>
+        <v>0.9667356520057923</v>
       </c>
     </row>
     <row r="6">
@@ -2067,19 +2067,19 @@
         <v>11911</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7009</v>
+        <v>6674</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21018</v>
+        <v>20757</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005736314711923112</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0033757099465956</v>
+        <v>0.003214117562987642</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01012219775752506</v>
+        <v>0.009996876752558359</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -2088,19 +2088,19 @@
         <v>18721</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11490</v>
+        <v>11022</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>29724</v>
+        <v>28930</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.00941536029354508</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005778605727082073</v>
+        <v>0.005543319420584639</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01494958590764084</v>
+        <v>0.01455031447257901</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>29</v>
@@ -2109,19 +2109,19 @@
         <v>30631</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>21459</v>
+        <v>20631</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>43285</v>
+        <v>43940</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.007535973606482166</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005279416657636492</v>
+        <v>0.005075717142178185</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01064905032575992</v>
+        <v>0.01081008077242407</v>
       </c>
     </row>
     <row r="8">
@@ -2138,19 +2138,19 @@
         <v>2064474</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2055367</v>
+        <v>2055628</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2069376</v>
+        <v>2069711</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9942636852880768</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9898778022424745</v>
+        <v>0.9900031232474417</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9966242900534044</v>
+        <v>0.9967858824370124</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1891</v>
@@ -2159,19 +2159,19 @@
         <v>1969579</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1958576</v>
+        <v>1959370</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1976810</v>
+        <v>1977278</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9905846397064549</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9850504140923589</v>
+        <v>0.9854496855274211</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.994221394272918</v>
+        <v>0.9944566805794154</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3831</v>
@@ -2180,19 +2180,19 @@
         <v>4034054</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4021400</v>
+        <v>4020745</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4043226</v>
+        <v>4044054</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9924640263935178</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9893509496742401</v>
+        <v>0.9891899192275759</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9947205833423636</v>
+        <v>0.9949242828578219</v>
       </c>
     </row>
     <row r="9">
@@ -2284,19 +2284,19 @@
         <v>3747</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>987</v>
+        <v>966</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10134</v>
+        <v>9268</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006850971897564916</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001805356306544455</v>
+        <v>0.001766799969847397</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01852967002246719</v>
+        <v>0.01694617516725298</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -2305,19 +2305,19 @@
         <v>6043</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2096</v>
+        <v>2106</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13620</v>
+        <v>15482</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0110040429112989</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003816258970737201</v>
+        <v>0.00383586656008761</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02480154674822253</v>
+        <v>0.02819403222347375</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -2326,19 +2326,19 @@
         <v>9789</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4813</v>
+        <v>4172</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>19547</v>
+        <v>17528</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008931778111490226</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004391205073876269</v>
+        <v>0.00380606966082688</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01783417541085393</v>
+        <v>0.0159919686327823</v>
       </c>
     </row>
     <row r="11">
@@ -2355,19 +2355,19 @@
         <v>543139</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>536752</v>
+        <v>537618</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>545899</v>
+        <v>545920</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9931490281024351</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9814703299775324</v>
+        <v>0.9830538248327472</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9981946436934556</v>
+        <v>0.9982332000301526</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>521</v>
@@ -2376,19 +2376,19 @@
         <v>543097</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>535520</v>
+        <v>533658</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>547044</v>
+        <v>547034</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9889959570887011</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9751984532517773</v>
+        <v>0.9718059677765262</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9961837410292628</v>
+        <v>0.9961641334399124</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1018</v>
@@ -2397,19 +2397,19 @@
         <v>1086238</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1076480</v>
+        <v>1078499</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1091214</v>
+        <v>1091855</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9910682218885097</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9821658245891461</v>
+        <v>0.9840080313672177</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9956087949261239</v>
+        <v>0.9961939303391731</v>
       </c>
     </row>
     <row r="12">
@@ -2501,19 +2501,19 @@
         <v>35388</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>25169</v>
+        <v>25335</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>48115</v>
+        <v>47437</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01047725952288439</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007451653551592926</v>
+        <v>0.007500894619194825</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01424533778215927</v>
+        <v>0.01404465227254898</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>70</v>
@@ -2522,19 +2522,19 @@
         <v>80465</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>62395</v>
+        <v>64809</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>100482</v>
+        <v>101381</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02278112037337477</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01766526937370583</v>
+        <v>0.01834867833106506</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02844815827353101</v>
+        <v>0.0287028135423206</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>108</v>
@@ -2543,19 +2543,19 @@
         <v>115853</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>95254</v>
+        <v>94347</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>141791</v>
+        <v>138252</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01676673049777061</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01378551540429981</v>
+        <v>0.01365428802173915</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02052047442516702</v>
+        <v>0.02000829129350958</v>
       </c>
     </row>
     <row r="14">
@@ -2572,19 +2572,19 @@
         <v>3342230</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3329503</v>
+        <v>3330181</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3352449</v>
+        <v>3352283</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9895227404771156</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9857546622178408</v>
+        <v>0.9859553477274515</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9925483464484072</v>
+        <v>0.9924991053808054</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3256</v>
@@ -2593,19 +2593,19 @@
         <v>3451635</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3431618</v>
+        <v>3430719</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3469705</v>
+        <v>3467291</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9772188796266252</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9715518417264694</v>
+        <v>0.9712971864576787</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9823347306262945</v>
+        <v>0.9816513216689349</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6433</v>
@@ -2614,19 +2614,19 @@
         <v>6793865</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6767927</v>
+        <v>6771466</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6814464</v>
+        <v>6815371</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9832332695022294</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.979479525574833</v>
+        <v>0.9799917087064905</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9862144845957002</v>
+        <v>0.9863457119782609</v>
       </c>
     </row>
     <row r="15">
@@ -2957,19 +2957,19 @@
         <v>59048</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>47866</v>
+        <v>48587</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>72097</v>
+        <v>71240</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1024075791846637</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08301336298771719</v>
+        <v>0.084264646693965</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.125037378180651</v>
+        <v>0.1235522455217948</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>216</v>
@@ -2978,19 +2978,19 @@
         <v>109408</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>95895</v>
+        <v>96422</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>124080</v>
+        <v>124072</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1332846729940902</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1168229469984944</v>
+        <v>0.1174651226276803</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1511587871120972</v>
+        <v>0.1511498738729025</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>316</v>
@@ -2999,19 +2999,19 @@
         <v>168456</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>152016</v>
+        <v>150476</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>188694</v>
+        <v>187800</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1205445769750894</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1087806740058998</v>
+        <v>0.107678237266629</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1350263578924786</v>
+        <v>0.1343867033972354</v>
       </c>
     </row>
     <row r="5">
@@ -3028,19 +3028,19 @@
         <v>517553</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>504504</v>
+        <v>505361</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>528735</v>
+        <v>528014</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8975924208153363</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8749626218193488</v>
+        <v>0.8764477544782051</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9169866370122828</v>
+        <v>0.9157353533060341</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1209</v>
@@ -3049,19 +3049,19 @@
         <v>711449</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>696777</v>
+        <v>696785</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>724962</v>
+        <v>724435</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8667153270059098</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8488412128879026</v>
+        <v>0.8488501261270974</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8831770530015054</v>
+        <v>0.8825348773723196</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1798</v>
@@ -3070,19 +3070,19 @@
         <v>1229002</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1208764</v>
+        <v>1209658</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1245442</v>
+        <v>1246982</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8794554230249105</v>
+        <v>0.8794554230249104</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8649736421075213</v>
+        <v>0.8656132966027648</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8912193259941003</v>
+        <v>0.8923217627333712</v>
       </c>
     </row>
     <row r="6">
@@ -3174,19 +3174,19 @@
         <v>40020</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>30506</v>
+        <v>30815</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>53358</v>
+        <v>54147</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01795931838024558</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01369010359430036</v>
+        <v>0.01382883481513424</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02394499689041297</v>
+        <v>0.02429906510688522</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>73</v>
@@ -3195,19 +3195,19 @@
         <v>40594</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>32108</v>
+        <v>31858</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>51707</v>
+        <v>50519</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01870654611250201</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01479607156365426</v>
+        <v>0.01468092965417784</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02382761222380887</v>
+        <v>0.02328022491429869</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>128</v>
@@ -3216,19 +3216,19 @@
         <v>80614</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>66980</v>
+        <v>67481</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>97207</v>
+        <v>96010</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01832798122060848</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0152281751688799</v>
+        <v>0.01534226732896002</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02210060644253973</v>
+        <v>0.02182842821926392</v>
       </c>
     </row>
     <row r="8">
@@ -3245,19 +3245,19 @@
         <v>2188323</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2174985</v>
+        <v>2174196</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2197837</v>
+        <v>2197528</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9820406816197546</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9760550031095869</v>
+        <v>0.9757009348931142</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9863098964056995</v>
+        <v>0.9861711651848655</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2846</v>
@@ -3266,19 +3266,19 @@
         <v>2129462</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2118349</v>
+        <v>2119537</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2137948</v>
+        <v>2138198</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9812934538874981</v>
+        <v>0.9812934538874979</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9761723877761913</v>
+        <v>0.9767197750857013</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9852039284363459</v>
+        <v>0.9853190703458222</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4781</v>
@@ -3287,19 +3287,19 @@
         <v>4317785</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4301192</v>
+        <v>4302389</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4331419</v>
+        <v>4330918</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9816720187793915</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.97789939355746</v>
+        <v>0.9781715717807361</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9847718248311197</v>
+        <v>0.9846577326710401</v>
       </c>
     </row>
     <row r="9">
@@ -3391,19 +3391,19 @@
         <v>10551</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6209</v>
+        <v>5956</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17029</v>
+        <v>17418</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01484576570732803</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008735988778627499</v>
+        <v>0.00837984837769842</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02395995247182518</v>
+        <v>0.02450818308750593</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>23</v>
@@ -3412,19 +3412,19 @@
         <v>15425</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9802</v>
+        <v>9683</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25675</v>
+        <v>25859</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02103075019902982</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01336368707821801</v>
+        <v>0.01320177317294007</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03500565774732579</v>
+        <v>0.03525650845649381</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>39</v>
@@ -3433,19 +3433,19 @@
         <v>25976</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>18820</v>
+        <v>19140</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>36921</v>
+        <v>37503</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01798696265641227</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01303184889999621</v>
+        <v>0.01325319995002739</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02556513321580683</v>
+        <v>0.0259685076369407</v>
       </c>
     </row>
     <row r="11">
@@ -3462,19 +3462,19 @@
         <v>700168</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>693690</v>
+        <v>693301</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>704510</v>
+        <v>704763</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9851542342926719</v>
+        <v>0.985154234292672</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9760400475281747</v>
+        <v>0.9754918169124941</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9912640112213725</v>
+        <v>0.9916201516223012</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>979</v>
@@ -3483,19 +3483,19 @@
         <v>718039</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>707789</v>
+        <v>707605</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>723662</v>
+        <v>723781</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.97896924980097</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9649943422526741</v>
+        <v>0.9647434915435064</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9866363129217821</v>
+        <v>0.9867982268270599</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1643</v>
@@ -3504,19 +3504,19 @@
         <v>1418207</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1407262</v>
+        <v>1406680</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1425363</v>
+        <v>1425043</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9820130373435878</v>
+        <v>0.9820130373435876</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9744348667841939</v>
+        <v>0.9740314923630592</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9869681511000038</v>
+        <v>0.9867468000499726</v>
       </c>
     </row>
     <row r="12">
@@ -3608,19 +3608,19 @@
         <v>109619</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>93965</v>
+        <v>92528</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>129778</v>
+        <v>128112</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03118017071708405</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02672748801875724</v>
+        <v>0.02631878288539634</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03691429012833372</v>
+        <v>0.03644029083960554</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>312</v>
@@ -3629,19 +3629,19 @@
         <v>165427</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>147324</v>
+        <v>147845</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>187435</v>
+        <v>186076</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.04441742635465494</v>
+        <v>0.04441742635465493</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03955668463504187</v>
+        <v>0.03969656356106833</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05032655906784202</v>
+        <v>0.04996154056965004</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>483</v>
@@ -3650,19 +3650,19 @@
         <v>275046</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>250186</v>
+        <v>249164</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>305247</v>
+        <v>300252</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0379896000013269</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03455583631293301</v>
+        <v>0.03441478416143964</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04216090737276151</v>
+        <v>0.04147105719184861</v>
       </c>
     </row>
     <row r="14">
@@ -3679,19 +3679,19 @@
         <v>3406043</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3385884</v>
+        <v>3387550</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3421697</v>
+        <v>3423134</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9688198292829159</v>
+        <v>0.9688198292829161</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9630857098716664</v>
+        <v>0.9635597091603946</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9732725119812428</v>
+        <v>0.9736812171146035</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5034</v>
@@ -3700,19 +3700,19 @@
         <v>3558951</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3536943</v>
+        <v>3538302</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3577054</v>
+        <v>3576533</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9555825736453452</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9496734409321577</v>
+        <v>0.95003845943035</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9604433153649582</v>
+        <v>0.9603034364389316</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8222</v>
@@ -3721,19 +3721,19 @@
         <v>6964994</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6934793</v>
+        <v>6939788</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6989854</v>
+        <v>6990876</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9620103999986731</v>
+        <v>0.9620103999986733</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9578390926272384</v>
+        <v>0.9585289428081516</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9654441636870671</v>
+        <v>0.9655852158385606</v>
       </c>
     </row>
     <row r="15">
